--- a/grflost/web/uploads/GRF/IKR/TemplateInputSN.xlsx
+++ b/grflost/web/uploads/GRF/IKR/TemplateInputSN.xlsx
@@ -31,9 +31,6 @@
     <t>CONDITION</t>
   </si>
   <si>
-    <t>asd345</t>
-  </si>
-  <si>
     <t>Good</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>Reject</t>
+  </si>
+  <si>
+    <t>asd400</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +418,10 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15443,27 +15443,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/grflost/web/uploads/GRF/IKR/TemplateInputSN.xlsx
+++ b/grflost/web/uploads/GRF/IKR/TemplateInputSN.xlsx
@@ -31,6 +31,9 @@
     <t>CONDITION</t>
   </si>
   <si>
+    <t>asd345</t>
+  </si>
+  <si>
     <t>Good</t>
   </si>
   <si>
@@ -44,9 +47,6 @@
   </si>
   <si>
     <t>Reject</t>
-  </si>
-  <si>
-    <t>asd400</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +418,10 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15443,27 +15443,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
